--- a/natmiOut/OldD7/LR-pairs_lrc2p/Tgfb2-Eng.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Tgfb2-Eng.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.83029139199087</v>
+        <v>2.191602</v>
       </c>
       <c r="H2">
-        <v>1.83029139199087</v>
+        <v>6.574806000000001</v>
       </c>
       <c r="I2">
-        <v>0.06670108203694963</v>
+        <v>0.07674610985252207</v>
       </c>
       <c r="J2">
-        <v>0.06670108203694963</v>
+        <v>0.07674610985252209</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>214.998999198222</v>
+        <v>218.7785543333333</v>
       </c>
       <c r="N2">
-        <v>214.998999198222</v>
+        <v>656.3356630000001</v>
       </c>
       <c r="O2">
-        <v>0.7873286713819787</v>
+        <v>0.7837094150017259</v>
       </c>
       <c r="P2">
-        <v>0.7873286713819787</v>
+        <v>0.7837094150017259</v>
       </c>
       <c r="Q2">
-        <v>393.5108175191577</v>
+        <v>479.4755172340421</v>
       </c>
       <c r="R2">
-        <v>393.5108175191577</v>
+        <v>4315.279655106378</v>
       </c>
       <c r="S2">
-        <v>0.05251567429989192</v>
+        <v>0.06014664885617826</v>
       </c>
       <c r="T2">
-        <v>0.05251567429989192</v>
+        <v>0.06014664885617828</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.83029139199087</v>
+        <v>2.191602</v>
       </c>
       <c r="H3">
-        <v>1.83029139199087</v>
+        <v>6.574806000000001</v>
       </c>
       <c r="I3">
-        <v>0.06670108203694963</v>
+        <v>0.07674610985252207</v>
       </c>
       <c r="J3">
-        <v>0.06670108203694963</v>
+        <v>0.07674610985252209</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.1466192585527</v>
+        <v>46.29469433333333</v>
       </c>
       <c r="N3">
-        <v>46.1466192585527</v>
+        <v>138.884083</v>
       </c>
       <c r="O3">
-        <v>0.1689894211838117</v>
+        <v>0.1658370397602197</v>
       </c>
       <c r="P3">
-        <v>0.1689894211838117</v>
+        <v>0.1658370397602197</v>
       </c>
       <c r="Q3">
-        <v>84.46175999840911</v>
+        <v>101.459544690322</v>
       </c>
       <c r="R3">
-        <v>84.46175999840911</v>
+        <v>913.1359022128981</v>
       </c>
       <c r="S3">
-        <v>0.01127177724575806</v>
+        <v>0.01272734767105489</v>
       </c>
       <c r="T3">
-        <v>0.01127177724575806</v>
+        <v>0.01272734767105489</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.83029139199087</v>
+        <v>2.191602</v>
       </c>
       <c r="H4">
-        <v>1.83029139199087</v>
+        <v>6.574806000000001</v>
       </c>
       <c r="I4">
-        <v>0.06670108203694963</v>
+        <v>0.07674610985252207</v>
       </c>
       <c r="J4">
-        <v>0.06670108203694963</v>
+        <v>0.07674610985252209</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.18118321266422</v>
+        <v>6.978882</v>
       </c>
       <c r="N4">
-        <v>6.18118321266422</v>
+        <v>20.936646</v>
       </c>
       <c r="O4">
-        <v>0.02263556009350837</v>
+        <v>0.02499977909741928</v>
       </c>
       <c r="P4">
-        <v>0.02263556009350837</v>
+        <v>0.02499977909741927</v>
       </c>
       <c r="Q4">
-        <v>11.31336642645779</v>
+        <v>15.294931748964</v>
       </c>
       <c r="R4">
-        <v>11.31336642645779</v>
+        <v>137.654385740676</v>
       </c>
       <c r="S4">
-        <v>0.001509816350749405</v>
+        <v>0.001918635792899325</v>
       </c>
       <c r="T4">
-        <v>0.001509816350749405</v>
+        <v>0.001918635792899325</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.83029139199087</v>
+        <v>2.191602</v>
       </c>
       <c r="H5">
-        <v>1.83029139199087</v>
+        <v>6.574806000000001</v>
       </c>
       <c r="I5">
-        <v>0.06670108203694963</v>
+        <v>0.07674610985252207</v>
       </c>
       <c r="J5">
-        <v>0.06670108203694963</v>
+        <v>0.07674610985252209</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.74721051004838</v>
+        <v>7.105616</v>
       </c>
       <c r="N5">
-        <v>5.74721051004838</v>
+        <v>21.316848</v>
       </c>
       <c r="O5">
-        <v>0.02104634734070128</v>
+        <v>0.02545376614063513</v>
       </c>
       <c r="P5">
-        <v>0.02104634734070128</v>
+        <v>0.02545376614063513</v>
       </c>
       <c r="Q5">
-        <v>10.51906992450101</v>
+        <v>15.572682236832</v>
       </c>
       <c r="R5">
-        <v>10.51906992450101</v>
+        <v>140.154140131488</v>
       </c>
       <c r="S5">
-        <v>0.001403814140550253</v>
+        <v>0.001953477532389591</v>
       </c>
       <c r="T5">
-        <v>0.001403814140550253</v>
+        <v>0.001953477532389591</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.5563085142682</v>
+        <v>16.59481266666667</v>
       </c>
       <c r="H6">
-        <v>16.5563085142682</v>
+        <v>49.78443799999999</v>
       </c>
       <c r="I6">
-        <v>0.6033594963466667</v>
+        <v>0.5811216251390648</v>
       </c>
       <c r="J6">
-        <v>0.6033594963466667</v>
+        <v>0.5811216251390647</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>214.998999198222</v>
+        <v>218.7785543333333</v>
       </c>
       <c r="N6">
-        <v>214.998999198222</v>
+        <v>656.3356630000001</v>
       </c>
       <c r="O6">
-        <v>0.7873286713819787</v>
+        <v>0.7837094150017259</v>
       </c>
       <c r="P6">
-        <v>0.7873286713819787</v>
+        <v>0.7837094150017259</v>
       </c>
       <c r="Q6">
-        <v>3559.589760984665</v>
+        <v>3630.589124645822</v>
       </c>
       <c r="R6">
-        <v>3559.589760984665</v>
+        <v>32675.30212181239</v>
       </c>
       <c r="S6">
-        <v>0.4750422306243209</v>
+        <v>0.4554304888825887</v>
       </c>
       <c r="T6">
-        <v>0.4750422306243209</v>
+        <v>0.4554304888825886</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>16.5563085142682</v>
+        <v>16.59481266666667</v>
       </c>
       <c r="H7">
-        <v>16.5563085142682</v>
+        <v>49.78443799999999</v>
       </c>
       <c r="I7">
-        <v>0.6033594963466667</v>
+        <v>0.5811216251390648</v>
       </c>
       <c r="J7">
-        <v>0.6033594963466667</v>
+        <v>0.5811216251390647</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>46.1466192585527</v>
+        <v>46.29469433333333</v>
       </c>
       <c r="N7">
-        <v>46.1466192585527</v>
+        <v>138.884083</v>
       </c>
       <c r="O7">
-        <v>0.1689894211838117</v>
+        <v>0.1658370397602197</v>
       </c>
       <c r="P7">
-        <v>0.1689894211838117</v>
+        <v>0.1658370397602197</v>
       </c>
       <c r="Q7">
-        <v>764.0176653350688</v>
+        <v>768.2517799222616</v>
       </c>
       <c r="R7">
-        <v>764.0176653350688</v>
+        <v>6914.266019300353</v>
       </c>
       <c r="S7">
-        <v>0.1019613720533794</v>
+        <v>0.09637149005371055</v>
       </c>
       <c r="T7">
-        <v>0.1019613720533794</v>
+        <v>0.09637149005371054</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>16.5563085142682</v>
+        <v>16.59481266666667</v>
       </c>
       <c r="H8">
-        <v>16.5563085142682</v>
+        <v>49.78443799999999</v>
       </c>
       <c r="I8">
-        <v>0.6033594963466667</v>
+        <v>0.5811216251390648</v>
       </c>
       <c r="J8">
-        <v>0.6033594963466667</v>
+        <v>0.5811216251390647</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.18118321266422</v>
+        <v>6.978882</v>
       </c>
       <c r="N8">
-        <v>6.18118321266422</v>
+        <v>20.936646</v>
       </c>
       <c r="O8">
-        <v>0.02263556009350837</v>
+        <v>0.02499977909741928</v>
       </c>
       <c r="P8">
-        <v>0.02263556009350837</v>
+        <v>0.02499977909741927</v>
       </c>
       <c r="Q8">
-        <v>102.3375762520843</v>
+        <v>115.813239412772</v>
       </c>
       <c r="R8">
-        <v>102.3375762520843</v>
+        <v>1042.319154714948</v>
       </c>
       <c r="S8">
-        <v>0.01365738013754392</v>
+        <v>0.01452791225720991</v>
       </c>
       <c r="T8">
-        <v>0.01365738013754392</v>
+        <v>0.01452791225720991</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>16.5563085142682</v>
+        <v>16.59481266666667</v>
       </c>
       <c r="H9">
-        <v>16.5563085142682</v>
+        <v>49.78443799999999</v>
       </c>
       <c r="I9">
-        <v>0.6033594963466667</v>
+        <v>0.5811216251390648</v>
       </c>
       <c r="J9">
-        <v>0.6033594963466667</v>
+        <v>0.5811216251390647</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.74721051004838</v>
+        <v>7.105616</v>
       </c>
       <c r="N9">
-        <v>5.74721051004838</v>
+        <v>21.316848</v>
       </c>
       <c r="O9">
-        <v>0.02104634734070128</v>
+        <v>0.02545376614063513</v>
       </c>
       <c r="P9">
-        <v>0.02104634734070128</v>
+        <v>0.02545376614063513</v>
       </c>
       <c r="Q9">
-        <v>95.15259030080568</v>
+        <v>117.9163664012693</v>
       </c>
       <c r="R9">
-        <v>95.15259030080568</v>
+        <v>1061.247297611424</v>
       </c>
       <c r="S9">
-        <v>0.01269851353142253</v>
+        <v>0.01479173394555559</v>
       </c>
       <c r="T9">
-        <v>0.01269851353142253</v>
+        <v>0.01479173394555558</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.05360550115793</v>
+        <v>9.770107666666666</v>
       </c>
       <c r="H10">
-        <v>9.05360550115793</v>
+        <v>29.310323</v>
       </c>
       <c r="I10">
-        <v>0.3299394216163838</v>
+        <v>0.342132265008413</v>
       </c>
       <c r="J10">
-        <v>0.3299394216163838</v>
+        <v>0.342132265008413</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>214.998999198222</v>
+        <v>218.7785543333333</v>
       </c>
       <c r="N10">
-        <v>214.998999198222</v>
+        <v>656.3356630000001</v>
       </c>
       <c r="O10">
-        <v>0.7873286713819787</v>
+        <v>0.7837094150017259</v>
       </c>
       <c r="P10">
-        <v>0.7873286713819787</v>
+        <v>0.7837094150017259</v>
       </c>
       <c r="Q10">
-        <v>1946.516121884472</v>
+        <v>2137.49003099435</v>
       </c>
       <c r="R10">
-        <v>1946.516121884472</v>
+        <v>19237.41027894915</v>
       </c>
       <c r="S10">
-        <v>0.259770766457766</v>
+        <v>0.2681322772629589</v>
       </c>
       <c r="T10">
-        <v>0.259770766457766</v>
+        <v>0.2681322772629589</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.05360550115793</v>
+        <v>9.770107666666666</v>
       </c>
       <c r="H11">
-        <v>9.05360550115793</v>
+        <v>29.310323</v>
       </c>
       <c r="I11">
-        <v>0.3299394216163838</v>
+        <v>0.342132265008413</v>
       </c>
       <c r="J11">
-        <v>0.3299394216163838</v>
+        <v>0.342132265008413</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>46.1466192585527</v>
+        <v>46.29469433333333</v>
       </c>
       <c r="N11">
-        <v>46.1466192585527</v>
+        <v>138.884083</v>
       </c>
       <c r="O11">
-        <v>0.1689894211838117</v>
+        <v>0.1658370397602197</v>
       </c>
       <c r="P11">
-        <v>0.1689894211838117</v>
+        <v>0.1658370397602197</v>
       </c>
       <c r="Q11">
-        <v>417.7932859790732</v>
+        <v>452.3041480320899</v>
       </c>
       <c r="R11">
-        <v>417.7932859790732</v>
+        <v>4070.737332288809</v>
       </c>
       <c r="S11">
-        <v>0.0557562718846743</v>
+        <v>0.0567382020354542</v>
       </c>
       <c r="T11">
-        <v>0.0557562718846743</v>
+        <v>0.0567382020354542</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>25</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.05360550115793</v>
+        <v>9.770107666666666</v>
       </c>
       <c r="H12">
-        <v>9.05360550115793</v>
+        <v>29.310323</v>
       </c>
       <c r="I12">
-        <v>0.3299394216163838</v>
+        <v>0.342132265008413</v>
       </c>
       <c r="J12">
-        <v>0.3299394216163838</v>
+        <v>0.342132265008413</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.18118321266422</v>
+        <v>6.978882</v>
       </c>
       <c r="N12">
-        <v>6.18118321266422</v>
+        <v>20.936646</v>
       </c>
       <c r="O12">
-        <v>0.02263556009350837</v>
+        <v>0.02499977909741928</v>
       </c>
       <c r="P12">
-        <v>0.02263556009350837</v>
+        <v>0.02499977909741927</v>
       </c>
       <c r="Q12">
-        <v>55.96199433784184</v>
+        <v>68.18442853296199</v>
       </c>
       <c r="R12">
-        <v>55.96199433784184</v>
+        <v>613.6598567966579</v>
       </c>
       <c r="S12">
-        <v>0.007468363605215049</v>
+        <v>0.008553231047310038</v>
       </c>
       <c r="T12">
-        <v>0.007468363605215049</v>
+        <v>0.008553231047310036</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.05360550115793</v>
+        <v>9.770107666666666</v>
       </c>
       <c r="H13">
-        <v>9.05360550115793</v>
+        <v>29.310323</v>
       </c>
       <c r="I13">
-        <v>0.3299394216163838</v>
+        <v>0.342132265008413</v>
       </c>
       <c r="J13">
-        <v>0.3299394216163838</v>
+        <v>0.342132265008413</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.74721051004838</v>
+        <v>7.105616</v>
       </c>
       <c r="N13">
-        <v>5.74721051004838</v>
+        <v>21.316848</v>
       </c>
       <c r="O13">
-        <v>0.02104634734070128</v>
+        <v>0.02545376614063513</v>
       </c>
       <c r="P13">
-        <v>0.02104634734070128</v>
+        <v>0.02545376614063513</v>
       </c>
       <c r="Q13">
-        <v>52.03297669008669</v>
+        <v>69.42263335798934</v>
       </c>
       <c r="R13">
-        <v>52.03297669008669</v>
+        <v>624.8037002219039</v>
       </c>
       <c r="S13">
-        <v>0.006944019668728496</v>
+        <v>0.00870855466268995</v>
       </c>
       <c r="T13">
-        <v>0.006944019668728496</v>
+        <v>0.008708554662689948</v>
       </c>
     </row>
   </sheetData>
